--- a/backend/slots_data.xlsx
+++ b/backend/slots_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\school\FYP\Timetable\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0C6775-4FDC-4374-B884-14FBAC2C4878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71484F67-5003-480E-8914-2A06DE89110B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC536E8A-603F-4FFE-98CE-BEE6A2C740E8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>project_title</t>
   </si>
@@ -40,6 +40,135 @@
   </si>
   <si>
     <t>examiner_usernames</t>
+  </si>
+  <si>
+    <t>12/1/2026  10:00:00</t>
+  </si>
+  <si>
+    <t>12/1/2026 10:30:00</t>
+  </si>
+  <si>
+    <t>CL3</t>
+  </si>
+  <si>
+    <t>Intelligent FYP Submission and Feedback Management Module</t>
+  </si>
+  <si>
+    <t>Automated FYP Management and Marking Portal</t>
+  </si>
+  <si>
+    <t>Interactive 2D storytelling through stray animal welfare awareness</t>
+  </si>
+  <si>
+    <t>SCM Career Bridge: A Centralized Internship Platform for the School of Computing &amp; Creative Media</t>
+  </si>
+  <si>
+    <t>Supress depression coping mechanism through 2d animation</t>
+  </si>
+  <si>
+    <t>Timetabling in the FYP Management and MarkingPortal</t>
+  </si>
+  <si>
+    <t>Include Science element in game to engaging people have fun with learning</t>
+  </si>
+  <si>
+    <t>Puzzle-Sloving for Enchaning Problem-Solving Skills among Teenage Learners</t>
+  </si>
+  <si>
+    <t>Motion Study Through 3D animation of mythical folklore creature</t>
+  </si>
+  <si>
+    <t>BID TEST 1</t>
+  </si>
+  <si>
+    <t>BID TEST 2</t>
+  </si>
+  <si>
+    <t>BID TEST 3</t>
+  </si>
+  <si>
+    <t>BID TEST 4</t>
+  </si>
+  <si>
+    <t>michael</t>
+  </si>
+  <si>
+    <t>lecturer4</t>
+  </si>
+  <si>
+    <t>wuilee</t>
+  </si>
+  <si>
+    <t>lecturer3</t>
+  </si>
+  <si>
+    <t>lecturer2</t>
+  </si>
+  <si>
+    <t>lecturer1</t>
+  </si>
+  <si>
+    <t>12/1/2026  10:30:00</t>
+  </si>
+  <si>
+    <t>12/1/2026 11:00:00</t>
+  </si>
+  <si>
+    <t>12/1/2026  11:00:00</t>
+  </si>
+  <si>
+    <t>12/1/2026  11:30:00</t>
+  </si>
+  <si>
+    <t>12/1/2026 12:00:00</t>
+  </si>
+  <si>
+    <t>CL4</t>
+  </si>
+  <si>
+    <t>BLOCK 8, ROOM 801</t>
+  </si>
+  <si>
+    <t>13/1/2026  14:00:00</t>
+  </si>
+  <si>
+    <t>13/1/2026  14:30:00</t>
+  </si>
+  <si>
+    <t>13/1/2026 14:30:00</t>
+  </si>
+  <si>
+    <t>13/1/2026 15:00:00</t>
+  </si>
+  <si>
+    <t>BLOCK 8, ROOM 803</t>
+  </si>
+  <si>
+    <t>14/1/2026 16:30:00</t>
+  </si>
+  <si>
+    <t>14/1/2026  16:00:00</t>
+  </si>
+  <si>
+    <t>13/1/2026  10:00:00</t>
+  </si>
+  <si>
+    <t>13/1/2026 10:30:00</t>
+  </si>
+  <si>
+    <t>13/1/2026  10:30:00</t>
+  </si>
+  <si>
+    <t>13/1/2026 11:00:00</t>
+  </si>
+  <si>
+    <t>14/1/2026  15:00:00</t>
+  </si>
+  <si>
+    <t>14/1/2026  15:30:00</t>
+  </si>
+  <si>
+    <t>14/1/2026 16:00:00</t>
   </si>
 </sst>
 </file>
@@ -82,9 +211,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,18 +531,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2643780F-51B9-4A56-9DC7-7660E242FA8C}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="109.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -432,6 +564,227 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/slots_data.xlsx
+++ b/backend/slots_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\school\FYP\Timetable\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71484F67-5003-480E-8914-2A06DE89110B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0594E45C-C40E-458C-9C7C-D87556D9B787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC536E8A-603F-4FFE-98CE-BEE6A2C740E8}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>project_title</t>
   </si>
   <si>
-    <t xml:space="preserve">start_time </t>
-  </si>
-  <si>
     <t>end_time</t>
   </si>
   <si>
@@ -42,12 +39,6 @@
     <t>examiner_usernames</t>
   </si>
   <si>
-    <t>12/1/2026  10:00:00</t>
-  </si>
-  <si>
-    <t>12/1/2026 10:30:00</t>
-  </si>
-  <si>
     <t>CL3</t>
   </si>
   <si>
@@ -108,67 +99,16 @@
     <t>lecturer1</t>
   </si>
   <si>
-    <t>12/1/2026  10:30:00</t>
-  </si>
-  <si>
-    <t>12/1/2026 11:00:00</t>
-  </si>
-  <si>
-    <t>12/1/2026  11:00:00</t>
-  </si>
-  <si>
-    <t>12/1/2026  11:30:00</t>
-  </si>
-  <si>
-    <t>12/1/2026 12:00:00</t>
-  </si>
-  <si>
     <t>CL4</t>
   </si>
   <si>
     <t>BLOCK 8, ROOM 801</t>
   </si>
   <si>
-    <t>13/1/2026  14:00:00</t>
-  </si>
-  <si>
-    <t>13/1/2026  14:30:00</t>
-  </si>
-  <si>
-    <t>13/1/2026 14:30:00</t>
-  </si>
-  <si>
-    <t>13/1/2026 15:00:00</t>
-  </si>
-  <si>
     <t>BLOCK 8, ROOM 803</t>
   </si>
   <si>
-    <t>14/1/2026 16:30:00</t>
-  </si>
-  <si>
-    <t>14/1/2026  16:00:00</t>
-  </si>
-  <si>
-    <t>13/1/2026  10:00:00</t>
-  </si>
-  <si>
-    <t>13/1/2026 10:30:00</t>
-  </si>
-  <si>
-    <t>13/1/2026  10:30:00</t>
-  </si>
-  <si>
-    <t>13/1/2026 11:00:00</t>
-  </si>
-  <si>
-    <t>14/1/2026  15:00:00</t>
-  </si>
-  <si>
-    <t>14/1/2026  15:30:00</t>
-  </si>
-  <si>
-    <t>14/1/2026 16:00:00</t>
+    <t>start_time</t>
   </si>
 </sst>
 </file>
@@ -534,7 +474,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -552,237 +492,237 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
+      <c r="B2" s="2">
+        <v>46034.416666666664</v>
+      </c>
+      <c r="C2" s="2">
+        <v>46034.4375</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>46034.4375</v>
+      </c>
+      <c r="C3" s="2">
+        <v>46034.458333333336</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>46035.583333333336</v>
+      </c>
+      <c r="C4" s="2">
+        <v>46035.604166666664</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>46035.604166666664</v>
+      </c>
+      <c r="C5" s="2">
+        <v>46035.625</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>46034.416666666664</v>
+      </c>
+      <c r="C6" s="2">
+        <v>46034.4375</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>46034.4375</v>
+      </c>
+      <c r="C7" s="2">
+        <v>46034.458333333336</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>46036.666666666664</v>
+      </c>
+      <c r="C8" s="2">
+        <v>46036.6875</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>46034.458333333336</v>
+      </c>
+      <c r="C9" s="2">
+        <v>46034.4375</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>46034.479166666664</v>
+      </c>
+      <c r="C10" s="2">
+        <v>46034.5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>46035.416666666664</v>
+      </c>
+      <c r="C11" s="2">
+        <v>46035.4375</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>46035.4375</v>
+      </c>
+      <c r="C12" s="2">
+        <v>46035.458333333336</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>46036.625</v>
+      </c>
+      <c r="C13" s="2">
+        <v>46036.6875</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <v>46036.645833333336</v>
+      </c>
+      <c r="C14" s="2">
+        <v>46036.666666666664</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
